--- a/sqlite/24.05.2023.xlsx
+++ b/sqlite/24.05.2023.xlsx
@@ -719,7 +719,7 @@
     <col min="14" max="14" style="37" width="8.290714285714287" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="7.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -735,7 +735,7 @@
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="7.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
@@ -751,7 +751,7 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="7.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -767,7 +767,7 @@
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="7.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
@@ -783,7 +783,7 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="3.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
@@ -799,7 +799,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="3">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
@@ -815,7 +815,7 @@
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="1.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
@@ -831,7 +831,7 @@
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="7" t="s">
@@ -851,7 +851,7 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="8.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
@@ -867,7 +867,7 @@
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="24">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
@@ -885,7 +885,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="7.5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="22.5">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
@@ -901,7 +901,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="12.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="12" t="s">
@@ -919,7 +919,7 @@
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="28.5" customFormat="1" s="15">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="33.75" customFormat="1" s="15">
       <c r="A13" s="16"/>
       <c r="B13" s="17"/>
       <c r="C13" s="18" t="s">
@@ -959,7 +959,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="15">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1"/>
       <c r="B14" s="22" t="s">
         <v>15</v>
@@ -1127,7 +1127,7 @@
         <v>14950</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="15">
       <c r="A18" s="1"/>
       <c r="B18" s="22" t="s">
         <v>15</v>
@@ -1169,7 +1169,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="15">
       <c r="A19" s="1"/>
       <c r="B19" s="22" t="s">
         <v>15</v>
@@ -1211,7 +1211,7 @@
         <v>18420</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="15">
       <c r="A20" s="1"/>
       <c r="B20" s="22" t="s">
         <v>15</v>
@@ -1253,7 +1253,7 @@
         <v>9430</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="15">
       <c r="A21" s="1"/>
       <c r="B21" s="22" t="s">
         <v>15</v>
@@ -1295,7 +1295,7 @@
         <v>8460</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="15">
       <c r="A22" s="1"/>
       <c r="B22" s="22" t="s">
         <v>15</v>
@@ -1337,7 +1337,7 @@
         <v>17370</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="15">
       <c r="A23" s="1"/>
       <c r="B23" s="22" t="s">
         <v>15</v>
@@ -1379,7 +1379,7 @@
         <v>16950</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="15">
       <c r="A24" s="1"/>
       <c r="B24" s="22" t="s">
         <v>15</v>
@@ -1421,7 +1421,7 @@
         <v>11530</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="15">
       <c r="A25" s="1"/>
       <c r="B25" s="22" t="s">
         <v>15</v>
@@ -1463,7 +1463,7 @@
         <v>8870</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="15">
       <c r="A26" s="1"/>
       <c r="B26" s="22" t="s">
         <v>15</v>
@@ -1505,7 +1505,7 @@
         <v>8990</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="15">
       <c r="A27" s="1"/>
       <c r="B27" s="22" t="s">
         <v>15</v>
@@ -1547,7 +1547,7 @@
         <v>10020</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="15">
       <c r="A28" s="1"/>
       <c r="B28" s="22" t="s">
         <v>15</v>
@@ -1589,7 +1589,7 @@
         <v>17450</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="15">
       <c r="A29" s="1"/>
       <c r="B29" s="22" t="s">
         <v>15</v>
